--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Gp9</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Gp9</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8333575000000001</v>
+        <v>0.9816335</v>
       </c>
       <c r="N2">
-        <v>1.666715</v>
+        <v>1.963267</v>
       </c>
       <c r="O2">
-        <v>0.06156808326285224</v>
+        <v>0.07005640337637122</v>
       </c>
       <c r="P2">
-        <v>0.04205974565022313</v>
+        <v>0.0483866956802768</v>
       </c>
       <c r="Q2">
-        <v>1.59520167617375</v>
+        <v>0.6159701130825</v>
       </c>
       <c r="R2">
-        <v>6.380806704695001</v>
+        <v>2.46388045233</v>
       </c>
       <c r="S2">
-        <v>0.03266118579953234</v>
+        <v>0.02957242316149216</v>
       </c>
       <c r="T2">
-        <v>0.01879659311524596</v>
+        <v>0.01711083180496512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.486259</v>
       </c>
       <c r="O3">
-        <v>0.1104809431129378</v>
+        <v>0.1067238672936066</v>
       </c>
       <c r="P3">
-        <v>0.1132112643499485</v>
+        <v>0.1105683786137611</v>
       </c>
       <c r="Q3">
-        <v>2.862512137767833</v>
+        <v>0.9383683637350001</v>
       </c>
       <c r="R3">
-        <v>17.175072826607</v>
+        <v>5.630210182410001</v>
       </c>
       <c r="S3">
-        <v>0.05860891583897033</v>
+        <v>0.04505060512572586</v>
       </c>
       <c r="T3">
-        <v>0.05059436378301641</v>
+        <v>0.03909994065122626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.310102666666666</v>
+        <v>4.351154</v>
       </c>
       <c r="N4">
-        <v>12.930308</v>
+        <v>13.053462</v>
       </c>
       <c r="O4">
-        <v>0.3184284773974852</v>
+        <v>0.3105295405838443</v>
       </c>
       <c r="P4">
-        <v>0.3262978167587411</v>
+        <v>0.3217157388007119</v>
       </c>
       <c r="Q4">
-        <v>8.250340338147334</v>
+        <v>2.73032737923</v>
       </c>
       <c r="R4">
-        <v>49.50204202888399</v>
+        <v>16.38196427538</v>
       </c>
       <c r="S4">
-        <v>0.1689227780527082</v>
+        <v>0.131081678985914</v>
       </c>
       <c r="T4">
-        <v>0.1458232141252761</v>
+        <v>0.1137673035580507</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1459545</v>
+        <v>0.4799815</v>
       </c>
       <c r="N5">
-        <v>0.291909</v>
+        <v>0.959963</v>
       </c>
       <c r="O5">
-        <v>0.01078305386174357</v>
+        <v>0.03425492057595398</v>
       </c>
       <c r="P5">
-        <v>0.007366357351443399</v>
+        <v>0.02365925650730418</v>
       </c>
       <c r="Q5">
-        <v>0.27938413351425</v>
+        <v>0.3011859913425</v>
       </c>
       <c r="R5">
-        <v>1.117536534057</v>
+        <v>1.20474396537</v>
       </c>
       <c r="S5">
-        <v>0.005720290562907088</v>
+        <v>0.01445979179366612</v>
       </c>
       <c r="T5">
-        <v>0.003292041350607831</v>
+        <v>0.008366546899626862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H6">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I6">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J6">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.432155</v>
+        <v>4.970231000000001</v>
       </c>
       <c r="N6">
-        <v>1.296465</v>
+        <v>14.910693</v>
       </c>
       <c r="O6">
-        <v>0.03192742013176567</v>
+        <v>0.3547113131425781</v>
       </c>
       <c r="P6">
-        <v>0.03271644410977074</v>
+        <v>0.3674890702961103</v>
       </c>
       <c r="Q6">
-        <v>0.8272252669075</v>
+        <v>3.118795101345001</v>
       </c>
       <c r="R6">
-        <v>4.963351601445</v>
+        <v>18.71277060807</v>
       </c>
       <c r="S6">
-        <v>0.01693714252190314</v>
+        <v>0.1497318238857643</v>
       </c>
       <c r="T6">
-        <v>0.01462105104541409</v>
+        <v>0.1299539797788435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H7">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I7">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J7">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.318554666666667</v>
+        <v>1.733625666666667</v>
       </c>
       <c r="N7">
-        <v>18.955664</v>
+        <v>5.200877</v>
       </c>
       <c r="O7">
-        <v>0.4668120222332155</v>
+        <v>0.1237239550276457</v>
       </c>
       <c r="P7">
-        <v>0.478348371779873</v>
+        <v>0.1281808601018359</v>
       </c>
       <c r="Q7">
-        <v>12.09489204244533</v>
+        <v>1.087841437705</v>
       </c>
       <c r="R7">
-        <v>72.569352254672</v>
+        <v>6.527048626230001</v>
       </c>
       <c r="S7">
-        <v>0.2476386040234858</v>
+        <v>0.05222673413070216</v>
       </c>
       <c r="T7">
-        <v>0.2137749425890542</v>
+        <v>0.04532818591934341</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.8333575000000001</v>
+        <v>0.9816335</v>
       </c>
       <c r="N8">
-        <v>1.666715</v>
+        <v>1.963267</v>
       </c>
       <c r="O8">
-        <v>0.06156808326285224</v>
+        <v>0.07005640337637122</v>
       </c>
       <c r="P8">
-        <v>0.04205974565022313</v>
+        <v>0.0483866956802768</v>
       </c>
       <c r="Q8">
-        <v>0.4373010146950001</v>
+        <v>0.515108252591</v>
       </c>
       <c r="R8">
-        <v>2.62380608817</v>
+        <v>3.090649515546</v>
       </c>
       <c r="S8">
-        <v>0.008953582424471909</v>
+        <v>0.02473009468489847</v>
       </c>
       <c r="T8">
-        <v>0.007729213206905013</v>
+        <v>0.021463534879947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>4.486259</v>
       </c>
       <c r="O9">
-        <v>0.1104809431129378</v>
+        <v>0.1067238672936066</v>
       </c>
       <c r="P9">
-        <v>0.1132112643499485</v>
+        <v>0.1105683786137611</v>
       </c>
       <c r="Q9">
-        <v>0.7847154884046667</v>
+        <v>0.7847154884046668</v>
       </c>
       <c r="R9">
         <v>7.062439395642</v>
       </c>
       <c r="S9">
-        <v>0.01606676995728281</v>
+        <v>0.03767380590650785</v>
       </c>
       <c r="T9">
-        <v>0.02080454805554427</v>
+        <v>0.04904629707878558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J10">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.310102666666666</v>
+        <v>4.351154</v>
       </c>
       <c r="N10">
-        <v>12.930308</v>
+        <v>13.053462</v>
       </c>
       <c r="O10">
-        <v>0.3184284773974852</v>
+        <v>0.3105295405838443</v>
       </c>
       <c r="P10">
-        <v>0.3262978167587411</v>
+        <v>0.3217157388007119</v>
       </c>
       <c r="Q10">
-        <v>2.261709133922667</v>
+        <v>2.283250656884</v>
       </c>
       <c r="R10">
-        <v>20.355382205304</v>
+        <v>20.549255911956</v>
       </c>
       <c r="S10">
-        <v>0.04630768845775812</v>
+        <v>0.109617744716918</v>
       </c>
       <c r="T10">
-        <v>0.05996292549293041</v>
+        <v>0.1427077605547603</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J11">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.1459545</v>
+        <v>0.4799815</v>
       </c>
       <c r="N11">
-        <v>0.291909</v>
+        <v>0.959963</v>
       </c>
       <c r="O11">
-        <v>0.01078305386174357</v>
+        <v>0.03425492057595398</v>
       </c>
       <c r="P11">
-        <v>0.007366357351443399</v>
+        <v>0.02365925650730418</v>
       </c>
       <c r="Q11">
-        <v>0.07658904005700001</v>
+        <v>0.251868372199</v>
       </c>
       <c r="R11">
-        <v>0.4595342403420001</v>
+        <v>1.511210233194</v>
       </c>
       <c r="S11">
-        <v>0.001568133299301423</v>
+        <v>0.01209207707560876</v>
       </c>
       <c r="T11">
-        <v>0.001353696881599095</v>
+        <v>0.01049485339179977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J12">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.432155</v>
+        <v>4.970231000000001</v>
       </c>
       <c r="N12">
-        <v>1.296465</v>
+        <v>14.910693</v>
       </c>
       <c r="O12">
-        <v>0.03192742013176567</v>
+        <v>0.3547113131425781</v>
       </c>
       <c r="P12">
-        <v>0.03271644410977074</v>
+        <v>0.3674890702961103</v>
       </c>
       <c r="Q12">
-        <v>0.22677160763</v>
+        <v>2.608108836326001</v>
       </c>
       <c r="R12">
-        <v>2.04094446867</v>
+        <v>23.472979526934</v>
       </c>
       <c r="S12">
-        <v>0.004643067846209649</v>
+        <v>0.1252140266564025</v>
       </c>
       <c r="T12">
-        <v>0.006012218285843775</v>
+        <v>0.1630120504697943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J13">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.318554666666667</v>
+        <v>1.733625666666667</v>
       </c>
       <c r="N13">
-        <v>18.955664</v>
+        <v>5.200877</v>
       </c>
       <c r="O13">
-        <v>0.4668120222332155</v>
+        <v>0.1237239550276457</v>
       </c>
       <c r="P13">
-        <v>0.478348371779873</v>
+        <v>0.1281808601018359</v>
       </c>
       <c r="Q13">
-        <v>3.315636287114667</v>
+        <v>0.9097131340806668</v>
       </c>
       <c r="R13">
-        <v>29.840726584032</v>
+        <v>8.187418206726001</v>
       </c>
       <c r="S13">
-        <v>0.06788647130617007</v>
+        <v>0.04367488159770107</v>
       </c>
       <c r="T13">
-        <v>0.08790487187938782</v>
+        <v>0.05685890146160156</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H14">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I14">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J14">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.8333575000000001</v>
+        <v>0.9816335</v>
       </c>
       <c r="N14">
-        <v>1.666715</v>
+        <v>1.963267</v>
       </c>
       <c r="O14">
-        <v>0.06156808326285224</v>
+        <v>0.07005640337637122</v>
       </c>
       <c r="P14">
-        <v>0.04205974565022313</v>
+        <v>0.0483866956802768</v>
       </c>
       <c r="Q14">
-        <v>0.1028743721591667</v>
+        <v>0.27795786940975</v>
       </c>
       <c r="R14">
-        <v>0.6172462329550001</v>
+        <v>1.111831477639</v>
       </c>
       <c r="S14">
-        <v>0.002106316106161618</v>
+        <v>0.0133446210468185</v>
       </c>
       <c r="T14">
-        <v>0.001818285183946507</v>
+        <v>0.007721300516571791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H15">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I15">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J15">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.486259</v>
       </c>
       <c r="O15">
-        <v>0.1104809431129378</v>
+        <v>0.1067238672936066</v>
       </c>
       <c r="P15">
-        <v>0.1132112643499485</v>
+        <v>0.1105683786137611</v>
       </c>
       <c r="Q15">
-        <v>0.1846030776981111</v>
+        <v>0.4234407896838334</v>
       </c>
       <c r="R15">
-        <v>1.661427699283</v>
+        <v>2.540644738103</v>
       </c>
       <c r="S15">
-        <v>0.003779682224460496</v>
+        <v>0.02032918472895058</v>
       </c>
       <c r="T15">
-        <v>0.00489423702975414</v>
+        <v>0.01764393428615407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H16">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I16">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J16">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.310102666666666</v>
+        <v>4.351154</v>
       </c>
       <c r="N16">
-        <v>12.930308</v>
+        <v>13.053462</v>
       </c>
       <c r="O16">
-        <v>0.3184284773974852</v>
+        <v>0.3105295405838443</v>
       </c>
       <c r="P16">
-        <v>0.3262978167587411</v>
+        <v>0.3217157388007119</v>
       </c>
       <c r="Q16">
-        <v>0.5320634970884445</v>
+        <v>1.232066239909</v>
       </c>
       <c r="R16">
-        <v>4.788571473796</v>
+        <v>7.392397439453999</v>
       </c>
       <c r="S16">
-        <v>0.01089381047870828</v>
+        <v>0.05915089618105791</v>
       </c>
       <c r="T16">
-        <v>0.01410618339684048</v>
+        <v>0.0513377461566105</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H17">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I17">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J17">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1459545</v>
+        <v>0.4799815</v>
       </c>
       <c r="N17">
-        <v>0.291909</v>
+        <v>0.959963</v>
       </c>
       <c r="O17">
-        <v>0.01078305386174357</v>
+        <v>0.03425492057595398</v>
       </c>
       <c r="P17">
-        <v>0.007366357351443399</v>
+        <v>0.02365925650730418</v>
       </c>
       <c r="Q17">
-        <v>0.0180174505555</v>
+        <v>0.13591084156775</v>
       </c>
       <c r="R17">
-        <v>0.108104703333</v>
+        <v>0.543643366271</v>
       </c>
       <c r="S17">
-        <v>0.0003689008788146335</v>
+        <v>0.006525012875970018</v>
       </c>
       <c r="T17">
-        <v>0.0003184550506599154</v>
+        <v>0.003775422705006403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H18">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I18">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J18">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.432155</v>
+        <v>4.970231000000001</v>
       </c>
       <c r="N18">
-        <v>1.296465</v>
+        <v>14.910693</v>
       </c>
       <c r="O18">
-        <v>0.03192742013176567</v>
+        <v>0.3547113131425781</v>
       </c>
       <c r="P18">
-        <v>0.03271644410977074</v>
+        <v>0.3674890702961103</v>
       </c>
       <c r="Q18">
-        <v>0.05334766207833334</v>
+        <v>1.4073631546135</v>
       </c>
       <c r="R18">
-        <v>0.4801289587050001</v>
+        <v>8.444178927681001</v>
       </c>
       <c r="S18">
-        <v>0.001092274368273249</v>
+        <v>0.06756681512005223</v>
       </c>
       <c r="T18">
-        <v>0.001414364844022648</v>
+        <v>0.05864201943156147</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H19">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I19">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J19">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.318554666666667</v>
+        <v>1.733625666666667</v>
       </c>
       <c r="N19">
-        <v>18.955664</v>
+        <v>5.200877</v>
       </c>
       <c r="O19">
-        <v>0.4668120222332155</v>
+        <v>0.1237239550276457</v>
       </c>
       <c r="P19">
-        <v>0.478348371779873</v>
+        <v>0.1281808601018359</v>
       </c>
       <c r="Q19">
-        <v>0.7799981931964445</v>
+        <v>0.4908908433348333</v>
       </c>
       <c r="R19">
-        <v>7.019983738768</v>
+        <v>2.945345060009</v>
       </c>
       <c r="S19">
-        <v>0.01597018501910963</v>
+        <v>0.02356742873863286</v>
       </c>
       <c r="T19">
-        <v>0.0206794820968601</v>
+        <v>0.02045444367308489</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H20">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I20">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J20">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.8333575000000001</v>
+        <v>0.9816335</v>
       </c>
       <c r="N20">
-        <v>1.666715</v>
+        <v>1.963267</v>
       </c>
       <c r="O20">
-        <v>0.06156808326285224</v>
+        <v>0.07005640337637122</v>
       </c>
       <c r="P20">
-        <v>0.04205974565022313</v>
+        <v>0.0483866956802768</v>
       </c>
       <c r="Q20">
-        <v>0.2869904058137501</v>
+        <v>0.050183067787</v>
       </c>
       <c r="R20">
-        <v>1.147961623255</v>
+        <v>0.301098406722</v>
       </c>
       <c r="S20">
-        <v>0.005876026277410402</v>
+        <v>0.0024092644831621</v>
       </c>
       <c r="T20">
-        <v>0.003381667639040778</v>
+        <v>0.002091028478792883</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H21">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I21">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J21">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.486259</v>
       </c>
       <c r="O21">
-        <v>0.1104809431129378</v>
+        <v>0.1067238672936066</v>
       </c>
       <c r="P21">
-        <v>0.1132112643499485</v>
+        <v>0.1105683786137611</v>
       </c>
       <c r="Q21">
-        <v>0.5149903816771667</v>
+        <v>0.07644884419933334</v>
       </c>
       <c r="R21">
-        <v>3.089942290063</v>
+        <v>0.688039597794</v>
       </c>
       <c r="S21">
-        <v>0.01054424452541633</v>
+        <v>0.003670271532422342</v>
       </c>
       <c r="T21">
-        <v>0.009102358160006624</v>
+        <v>0.004778206597595173</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H22">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I22">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J22">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.310102666666666</v>
+        <v>4.351154</v>
       </c>
       <c r="N22">
-        <v>12.930308</v>
+        <v>13.053462</v>
       </c>
       <c r="O22">
-        <v>0.3184284773974852</v>
+        <v>0.3105295405838443</v>
       </c>
       <c r="P22">
-        <v>0.3262978167587411</v>
+        <v>0.3217157388007119</v>
       </c>
       <c r="Q22">
-        <v>1.484306691192667</v>
+        <v>0.222439694788</v>
       </c>
       <c r="R22">
-        <v>8.905840147155999</v>
+        <v>2.001957253092</v>
       </c>
       <c r="S22">
-        <v>0.03039065050433935</v>
+        <v>0.01067922069995442</v>
       </c>
       <c r="T22">
-        <v>0.02623484166544975</v>
+        <v>0.0139029285312903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H23">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I23">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J23">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.1459545</v>
+        <v>0.4799815</v>
       </c>
       <c r="N23">
-        <v>0.291909</v>
+        <v>0.959963</v>
       </c>
       <c r="O23">
-        <v>0.01078305386174357</v>
+        <v>0.03425492057595398</v>
       </c>
       <c r="P23">
-        <v>0.007366357351443399</v>
+        <v>0.02365925650730418</v>
       </c>
       <c r="Q23">
-        <v>0.05026359177825001</v>
+        <v>0.024537614243</v>
       </c>
       <c r="R23">
-        <v>0.201054367113</v>
+        <v>0.147225685458</v>
       </c>
       <c r="S23">
-        <v>0.001029129128022843</v>
+        <v>0.001178038830709088</v>
       </c>
       <c r="T23">
-        <v>0.0005922663555825408</v>
+        <v>0.001022433510871141</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H24">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I24">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J24">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.432155</v>
+        <v>4.970231000000001</v>
       </c>
       <c r="N24">
-        <v>1.296465</v>
+        <v>14.910693</v>
       </c>
       <c r="O24">
-        <v>0.03192742013176567</v>
+        <v>0.3547113131425781</v>
       </c>
       <c r="P24">
-        <v>0.03271644410977074</v>
+        <v>0.3674890702961103</v>
       </c>
       <c r="Q24">
-        <v>0.1488248906675</v>
+        <v>0.2540881491820001</v>
       </c>
       <c r="R24">
-        <v>0.892949344005</v>
+        <v>2.286793342638</v>
       </c>
       <c r="S24">
-        <v>0.003047136596135863</v>
+        <v>0.01219864748035927</v>
       </c>
       <c r="T24">
-        <v>0.002630451958282611</v>
+        <v>0.01588102061591098</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H25">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I25">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J25">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.318554666666667</v>
+        <v>1.733625666666667</v>
       </c>
       <c r="N25">
-        <v>18.955664</v>
+        <v>5.200877</v>
       </c>
       <c r="O25">
-        <v>0.4668120222332155</v>
+        <v>0.1237239550276457</v>
       </c>
       <c r="P25">
-        <v>0.478348371779873</v>
+        <v>0.1281808601018359</v>
       </c>
       <c r="Q25">
-        <v>2.175974378274667</v>
+        <v>0.08862641133133334</v>
       </c>
       <c r="R25">
-        <v>13.055846269648</v>
+        <v>0.797637701982</v>
       </c>
       <c r="S25">
-        <v>0.0445522998912081</v>
+        <v>0.004254910560609655</v>
       </c>
       <c r="T25">
-        <v>0.03845993797699682</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.547919</v>
-      </c>
-      <c r="H26">
-        <v>1.643757</v>
-      </c>
-      <c r="I26">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J26">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>0.8333575000000001</v>
-      </c>
-      <c r="N26">
-        <v>1.666715</v>
-      </c>
-      <c r="O26">
-        <v>0.06156808326285224</v>
-      </c>
-      <c r="P26">
-        <v>0.04205974565022313</v>
-      </c>
-      <c r="Q26">
-        <v>0.4566124080425001</v>
-      </c>
-      <c r="R26">
-        <v>2.739674448255001</v>
-      </c>
-      <c r="S26">
-        <v>0.009348976320799441</v>
-      </c>
-      <c r="T26">
-        <v>0.008070538453107193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.547919</v>
-      </c>
-      <c r="H27">
-        <v>1.643757</v>
-      </c>
-      <c r="I27">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J27">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.495419666666667</v>
-      </c>
-      <c r="N27">
-        <v>4.486259</v>
-      </c>
-      <c r="O27">
-        <v>0.1104809431129378</v>
-      </c>
-      <c r="P27">
-        <v>0.1132112643499485</v>
-      </c>
-      <c r="Q27">
-        <v>0.8193688483403334</v>
-      </c>
-      <c r="R27">
-        <v>7.374319635063</v>
-      </c>
-      <c r="S27">
-        <v>0.01677628515171995</v>
-      </c>
-      <c r="T27">
-        <v>0.02172328548677981</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.547919</v>
-      </c>
-      <c r="H28">
-        <v>1.643757</v>
-      </c>
-      <c r="I28">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J28">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>4.310102666666666</v>
-      </c>
-      <c r="N28">
-        <v>12.930308</v>
-      </c>
-      <c r="O28">
-        <v>0.3184284773974852</v>
-      </c>
-      <c r="P28">
-        <v>0.3262978167587411</v>
-      </c>
-      <c r="Q28">
-        <v>2.361587143017333</v>
-      </c>
-      <c r="R28">
-        <v>21.254284287156</v>
-      </c>
-      <c r="S28">
-        <v>0.04835265509805958</v>
-      </c>
-      <c r="T28">
-        <v>0.06261091303823361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.547919</v>
-      </c>
-      <c r="H29">
-        <v>1.643757</v>
-      </c>
-      <c r="I29">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J29">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.1459545</v>
-      </c>
-      <c r="N29">
-        <v>0.291909</v>
-      </c>
-      <c r="O29">
-        <v>0.01078305386174357</v>
-      </c>
-      <c r="P29">
-        <v>0.007366357351443399</v>
-      </c>
-      <c r="Q29">
-        <v>0.07997124368550002</v>
-      </c>
-      <c r="R29">
-        <v>0.4798274621130001</v>
-      </c>
-      <c r="S29">
-        <v>0.001637382713198264</v>
-      </c>
-      <c r="T29">
-        <v>0.001413476694760693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.547919</v>
-      </c>
-      <c r="H30">
-        <v>1.643757</v>
-      </c>
-      <c r="I30">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J30">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.432155</v>
-      </c>
-      <c r="N30">
-        <v>1.296465</v>
-      </c>
-      <c r="O30">
-        <v>0.03192742013176567</v>
-      </c>
-      <c r="P30">
-        <v>0.03271644410977074</v>
-      </c>
-      <c r="Q30">
-        <v>0.236785935445</v>
-      </c>
-      <c r="R30">
-        <v>2.131073419005</v>
-      </c>
-      <c r="S30">
-        <v>0.004848107639176563</v>
-      </c>
-      <c r="T30">
-        <v>0.006277720327475074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.547919</v>
-      </c>
-      <c r="H31">
-        <v>1.643757</v>
-      </c>
-      <c r="I31">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J31">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>6.318554666666667</v>
-      </c>
-      <c r="N31">
-        <v>18.955664</v>
-      </c>
-      <c r="O31">
-        <v>0.4668120222332155</v>
-      </c>
-      <c r="P31">
-        <v>0.478348371779873</v>
-      </c>
-      <c r="Q31">
-        <v>3.462056154405333</v>
-      </c>
-      <c r="R31">
-        <v>31.158505389648</v>
-      </c>
-      <c r="S31">
-        <v>0.0708843659058009</v>
-      </c>
-      <c r="T31">
-        <v>0.09178678731287573</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.461005</v>
-      </c>
-      <c r="I32">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J32">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.8333575000000001</v>
-      </c>
-      <c r="N32">
-        <v>1.666715</v>
-      </c>
-      <c r="O32">
-        <v>0.06156808326285224</v>
-      </c>
-      <c r="P32">
-        <v>0.04205974565022313</v>
-      </c>
-      <c r="Q32">
-        <v>0.1280606580958333</v>
-      </c>
-      <c r="R32">
-        <v>0.7683639485750001</v>
-      </c>
-      <c r="S32">
-        <v>0.002621996334476535</v>
-      </c>
-      <c r="T32">
-        <v>0.002263448051977684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.461005</v>
-      </c>
-      <c r="I33">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J33">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.495419666666667</v>
-      </c>
-      <c r="N33">
-        <v>4.486259</v>
-      </c>
-      <c r="O33">
-        <v>0.1104809431129378</v>
-      </c>
-      <c r="P33">
-        <v>0.1132112643499485</v>
-      </c>
-      <c r="Q33">
-        <v>0.2297986478105555</v>
-      </c>
-      <c r="R33">
-        <v>2.068187830295</v>
-      </c>
-      <c r="S33">
-        <v>0.004705045415087908</v>
-      </c>
-      <c r="T33">
-        <v>0.0060924718348472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.461005</v>
-      </c>
-      <c r="I34">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J34">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>4.310102666666666</v>
-      </c>
-      <c r="N34">
-        <v>12.930308</v>
-      </c>
-      <c r="O34">
-        <v>0.3184284773974852</v>
-      </c>
-      <c r="P34">
-        <v>0.3262978167587411</v>
-      </c>
-      <c r="Q34">
-        <v>0.6623262932822221</v>
-      </c>
-      <c r="R34">
-        <v>5.960936639539999</v>
-      </c>
-      <c r="S34">
-        <v>0.01356089480591167</v>
-      </c>
-      <c r="T34">
-        <v>0.01755973904001071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.461005</v>
-      </c>
-      <c r="I35">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J35">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.5</v>
-      </c>
-      <c r="M35">
-        <v>0.1459545</v>
-      </c>
-      <c r="N35">
-        <v>0.291909</v>
-      </c>
-      <c r="O35">
-        <v>0.01078305386174357</v>
-      </c>
-      <c r="P35">
-        <v>0.007366357351443399</v>
-      </c>
-      <c r="Q35">
-        <v>0.0224285847575</v>
-      </c>
-      <c r="R35">
-        <v>0.134571508545</v>
-      </c>
-      <c r="S35">
-        <v>0.0004592172794993211</v>
-      </c>
-      <c r="T35">
-        <v>0.0003964210182333235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.461005</v>
-      </c>
-      <c r="I36">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J36">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.432155</v>
-      </c>
-      <c r="N36">
-        <v>1.296465</v>
-      </c>
-      <c r="O36">
-        <v>0.03192742013176567</v>
-      </c>
-      <c r="P36">
-        <v>0.03271644410977074</v>
-      </c>
-      <c r="Q36">
-        <v>0.06640853859166666</v>
-      </c>
-      <c r="R36">
-        <v>0.597676847325</v>
-      </c>
-      <c r="S36">
-        <v>0.001359691160067207</v>
-      </c>
-      <c r="T36">
-        <v>0.001760637648732536</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.461005</v>
-      </c>
-      <c r="I37">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J37">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.318554666666667</v>
-      </c>
-      <c r="N37">
-        <v>18.955664</v>
-      </c>
-      <c r="O37">
-        <v>0.4668120222332155</v>
-      </c>
-      <c r="P37">
-        <v>0.478348371779873</v>
-      </c>
-      <c r="Q37">
-        <v>0.9709617647022222</v>
-      </c>
-      <c r="R37">
-        <v>8.73865588232</v>
-      </c>
-      <c r="S37">
-        <v>0.01988009608744099</v>
-      </c>
-      <c r="T37">
-        <v>0.02574234992469828</v>
+        <v>0.005539329047805976</v>
       </c>
     </row>
   </sheetData>
